--- a/SchedulingData/dynamic11/pso/scheduling1_17.xlsx
+++ b/SchedulingData/dynamic11/pso/scheduling1_17.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>41.32</v>
+        <v>76.3</v>
       </c>
       <c r="E2" t="n">
-        <v>26.568</v>
+        <v>25.52</v>
       </c>
     </row>
     <row r="3">
@@ -485,93 +485,93 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>42.7</v>
+        <v>55</v>
       </c>
       <c r="E3" t="n">
-        <v>26.92</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>41.2</v>
+        <v>55.28</v>
       </c>
       <c r="E4" t="n">
-        <v>26.58</v>
+        <v>26.152</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>76.3</v>
       </c>
       <c r="D5" t="n">
-        <v>57</v>
+        <v>127.06</v>
       </c>
       <c r="E5" t="n">
-        <v>26.48</v>
+        <v>22.064</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>59</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>26.28</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>42.7</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>102</v>
+        <v>126.28</v>
       </c>
       <c r="E7" t="n">
-        <v>22.12</v>
+        <v>23.152</v>
       </c>
     </row>
     <row r="8">
@@ -580,41 +580,41 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>126.28</v>
       </c>
       <c r="D8" t="n">
-        <v>56.7</v>
+        <v>186.06</v>
       </c>
       <c r="E8" t="n">
-        <v>25.52</v>
+        <v>19.304</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>41.2</v>
+        <v>55.28</v>
       </c>
       <c r="D9" t="n">
-        <v>122.66</v>
+        <v>97.38</v>
       </c>
       <c r="E9" t="n">
-        <v>22.524</v>
+        <v>23.072</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -622,51 +622,51 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>125.32</v>
+        <v>49.12</v>
       </c>
       <c r="E10" t="n">
-        <v>22.268</v>
+        <v>25.788</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>56.7</v>
+        <v>55</v>
       </c>
       <c r="D11" t="n">
-        <v>119</v>
+        <v>134.12</v>
       </c>
       <c r="E11" t="n">
-        <v>22.88</v>
+        <v>20.888</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>119</v>
+        <v>97.38</v>
       </c>
       <c r="D12" t="n">
-        <v>180.1</v>
+        <v>145.08</v>
       </c>
       <c r="E12" t="n">
-        <v>18.4</v>
+        <v>19.432</v>
       </c>
     </row>
     <row r="13">
@@ -675,55 +675,55 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>122.66</v>
+        <v>49.12</v>
       </c>
       <c r="D13" t="n">
-        <v>175.66</v>
+        <v>110.12</v>
       </c>
       <c r="E13" t="n">
-        <v>18.364</v>
+        <v>21.308</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>41.32</v>
+        <v>134.12</v>
       </c>
       <c r="D14" t="n">
-        <v>115.44</v>
+        <v>176.72</v>
       </c>
       <c r="E14" t="n">
-        <v>22.256</v>
+        <v>18.248</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>175.66</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>245.34</v>
+        <v>52</v>
       </c>
       <c r="E15" t="n">
-        <v>14.516</v>
+        <v>26.48</v>
       </c>
     </row>
     <row r="16">
@@ -732,302 +732,302 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>115.44</v>
+        <v>52</v>
       </c>
       <c r="D16" t="n">
-        <v>177.84</v>
+        <v>100.56</v>
       </c>
       <c r="E16" t="n">
-        <v>18.616</v>
+        <v>23.744</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>102</v>
+        <v>100.56</v>
       </c>
       <c r="D17" t="n">
-        <v>153.04</v>
+        <v>175.88</v>
       </c>
       <c r="E17" t="n">
-        <v>18.636</v>
+        <v>20.312</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>125.32</v>
+        <v>127.06</v>
       </c>
       <c r="D18" t="n">
-        <v>178.68</v>
+        <v>175.18</v>
       </c>
       <c r="E18" t="n">
-        <v>19.532</v>
+        <v>18.872</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>180.1</v>
+        <v>145.08</v>
       </c>
       <c r="D19" t="n">
-        <v>224.1</v>
+        <v>216.18</v>
       </c>
       <c r="E19" t="n">
-        <v>15.64</v>
+        <v>14.952</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>178.68</v>
+        <v>110.12</v>
       </c>
       <c r="D20" t="n">
-        <v>229.54</v>
+        <v>186.98</v>
       </c>
       <c r="E20" t="n">
-        <v>16.076</v>
+        <v>17.252</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>224.1</v>
+        <v>216.18</v>
       </c>
       <c r="D21" t="n">
-        <v>277.02</v>
+        <v>289.54</v>
       </c>
       <c r="E21" t="n">
-        <v>12.468</v>
+        <v>12.216</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>245.34</v>
+        <v>175.88</v>
       </c>
       <c r="D22" t="n">
-        <v>325.14</v>
+        <v>244.28</v>
       </c>
       <c r="E22" t="n">
-        <v>10.616</v>
+        <v>16.592</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>59</v>
+        <v>176.72</v>
       </c>
       <c r="D23" t="n">
-        <v>115.2</v>
+        <v>228.4</v>
       </c>
       <c r="E23" t="n">
-        <v>21.8</v>
+        <v>14.72</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>115.2</v>
+        <v>228.4</v>
       </c>
       <c r="D24" t="n">
-        <v>180.08</v>
+        <v>282.3</v>
       </c>
       <c r="E24" t="n">
-        <v>17.952</v>
+        <v>11.96</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>277.02</v>
+        <v>175.18</v>
       </c>
       <c r="D25" t="n">
-        <v>335.58</v>
+        <v>228.1</v>
       </c>
       <c r="E25" t="n">
-        <v>9.731999999999999</v>
+        <v>15.7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>153.04</v>
+        <v>186.06</v>
       </c>
       <c r="D26" t="n">
-        <v>244.32</v>
+        <v>247.82</v>
       </c>
       <c r="E26" t="n">
-        <v>15.108</v>
+        <v>15.248</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>177.84</v>
+        <v>186.98</v>
       </c>
       <c r="D27" t="n">
-        <v>261.14</v>
+        <v>244.78</v>
       </c>
       <c r="E27" t="n">
-        <v>13.876</v>
+        <v>13.092</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>261.14</v>
+        <v>244.78</v>
       </c>
       <c r="D28" t="n">
-        <v>311.92</v>
+        <v>313.58</v>
       </c>
       <c r="E28" t="n">
-        <v>10.928</v>
+        <v>8.352</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>229.54</v>
+        <v>244.28</v>
       </c>
       <c r="D29" t="n">
-        <v>277.66</v>
+        <v>290.12</v>
       </c>
       <c r="E29" t="n">
-        <v>12.884</v>
+        <v>14.128</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>180.08</v>
+        <v>289.54</v>
       </c>
       <c r="D30" t="n">
-        <v>231.94</v>
+        <v>345.48</v>
       </c>
       <c r="E30" t="n">
-        <v>13.896</v>
+        <v>8.731999999999999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>244.32</v>
+        <v>247.82</v>
       </c>
       <c r="D31" t="n">
-        <v>304.76</v>
+        <v>322.92</v>
       </c>
       <c r="E31" t="n">
-        <v>12.644</v>
+        <v>11.828</v>
       </c>
     </row>
   </sheetData>
